--- a/Data/EC/NIT-9007486449.xlsx
+++ b/Data/EC/NIT-9007486449.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18975A2E-78D3-42ED-9F55-38EC6E647C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DBFA3FD-4A42-45AD-946C-205C450ABFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63179A0B-8B50-4142-8A0C-7D9C5D0CE673}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7EB76D15-52BB-4867-A0DD-1DE8058C991D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,43 +71,43 @@
     <t>LUIS GUILLERMO OSPINO MENDEZ</t>
   </si>
   <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E0C483-DDC5-9077-B608-364425ABEE03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A245DB9-8939-9C22-EDBF-5E0A738EEADC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C1801A-D2A8-4175-B8B2-043CE3A2F5D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599C2E20-EA13-49CE-BB58-FADBEAEB23F1}">
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1073,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
         <v>1300000</v>
@@ -1303,7 +1303,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G27" s="18">
         <v>1300000</v>
@@ -1326,7 +1326,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="24">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G28" s="24">
         <v>1300000</v>

--- a/Data/EC/NIT-9007486449.xlsx
+++ b/Data/EC/NIT-9007486449.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DBFA3FD-4A42-45AD-946C-205C450ABFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6112006-549C-45FC-899A-9E946EF5BB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7EB76D15-52BB-4867-A0DD-1DE8058C991D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{60B0ADF9-004F-4DC9-BF9D-757CFAB6B9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,43 +71,43 @@
     <t>LUIS GUILLERMO OSPINO MENDEZ</t>
   </si>
   <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
     <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -206,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -219,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A245DB9-8939-9C22-EDBF-5E0A738EEADC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2AB1B25-B329-C5C4-577B-82CB9FDE9064}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599C2E20-EA13-49CE-BB58-FADBEAEB23F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57830BC-93BF-4BED-9ACF-0BDC53171092}">
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1073,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G17" s="18">
         <v>1300000</v>
@@ -1303,7 +1303,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
         <v>1300000</v>
@@ -1326,7 +1326,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="24">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="24">
         <v>1300000</v>
